--- a/Excel_formulas_charts_reference.xlsx
+++ b/Excel_formulas_charts_reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="587" documentId="8_{1FFACFBD-B999-4626-930C-A8DD19060362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE90440-EB50-47B8-ADF1-AFC6B536A627}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="8_{1FFACFBD-B999-4626-930C-A8DD19060362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E52D4468-22A8-451A-8ED2-98984F75A8F9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{2FB6B6D4-FE40-48D3-865E-DAA828CD10B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{2FB6B6D4-FE40-48D3-865E-DAA828CD10B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Text " sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="299">
   <si>
     <t>Function Name</t>
   </si>
@@ -1577,6 +1577,12 @@
   </si>
   <si>
     <t>A miniature version of a line chart or a column chart packed into a single cell</t>
+  </si>
+  <si>
+    <t>Ctrl + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opens the Format Cells dialogue box </t>
   </si>
 </sst>
 </file>
@@ -1650,6 +1656,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2098,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1CDB4-16A2-471A-B7CC-C593C8927033}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,49 +2180,57 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2226,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865E98F8-0C8D-4A50-B017-B2B700B42A0D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Excel_formulas_charts_reference.xlsx
+++ b/Excel_formulas_charts_reference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="8_{1FFACFBD-B999-4626-930C-A8DD19060362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E52D4468-22A8-451A-8ED2-98984F75A8F9}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="8_{1FFACFBD-B999-4626-930C-A8DD19060362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C86448E-92B4-4623-BF3A-224E0D755C71}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{2FB6B6D4-FE40-48D3-865E-DAA828CD10B6}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="301">
   <si>
     <t>Function Name</t>
   </si>
@@ -1584,6 +1584,12 @@
   <si>
     <t xml:space="preserve">opens the Format Cells dialogue box </t>
   </si>
+  <si>
+    <t>Alt+H+V+V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste as values </t>
+  </si>
 </sst>
 </file>
 
@@ -1629,13 +1635,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2108,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1CDB4-16A2-471A-B7CC-C593C8927033}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2232,6 +2237,14 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2270,7 +2283,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3252,7 +3265,7 @@
       <c r="C11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -3273,11 +3286,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_formulas_charts_reference.xlsx
+++ b/Excel_formulas_charts_reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="8_{1FFACFBD-B999-4626-930C-A8DD19060362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C86448E-92B4-4623-BF3A-224E0D755C71}"/>
+  <xr:revisionPtr revIDLastSave="697" documentId="8_{1FFACFBD-B999-4626-930C-A8DD19060362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C61F132F-94AB-4796-8D68-685E697AD139}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{2FB6B6D4-FE40-48D3-865E-DAA828CD10B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{2FB6B6D4-FE40-48D3-865E-DAA828CD10B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Text " sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="Misc" sheetId="12" r:id="rId8"/>
     <sheet name="Formula Auditing" sheetId="5" r:id="rId9"/>
     <sheet name="Shortcuts" sheetId="6" r:id="rId10"/>
-    <sheet name="Basic charts &amp; graphs " sheetId="13" r:id="rId11"/>
+    <sheet name="Formulas Pro Tips" sheetId="14" r:id="rId11"/>
+    <sheet name="Basic charts &amp; graphs " sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="340">
   <si>
     <t>Function Name</t>
   </si>
@@ -64,9 +65,6 @@
   </si>
   <si>
     <t>Trace Precedents</t>
-  </si>
-  <si>
-    <t>Identifies cells which affect the value of the one selected</t>
   </si>
   <si>
     <t>Trace Dependents</t>
@@ -1590,6 +1588,265 @@
   <si>
     <t xml:space="preserve">Paste as values </t>
   </si>
+  <si>
+    <t>Pro Tip</t>
+  </si>
+  <si>
+    <t>Details/Purpose/Examples</t>
+  </si>
+  <si>
+    <t>Other Notes</t>
+  </si>
+  <si>
+    <t>Change formula calculation modes</t>
+  </si>
+  <si>
+    <t>If you see a worksheet formula producing duplicate values, check that you are not in Manual calculation mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel has two primary calculation modes:
+Automatic: allows formulas to calculate automatically with any workbook change
+Manual: freezes all formula calculations until the Calculate Now (F9) option is selected
+Menu options: Formulas &gt; Calculation Options
+Common use cases:
+-Switching large, formula-heavy files to manual mode while editing to prevent automatic recalculation
+-Allowing formulas to calculate automatically with the exception of data tables, which typically iterate a large number of times. 
+</t>
+  </si>
+  <si>
+    <t>Formula line breaks</t>
+  </si>
+  <si>
+    <t>while typing or editing in the formula bar, press ALT-ENTER to create a line break</t>
+  </si>
+  <si>
+    <t>line breaks are a great way to improve readability and provide transparency into formula logic, particularly for complex nested or conditional functions</t>
+  </si>
+  <si>
+    <t>Change measurement units with CONVERT</t>
+  </si>
+  <si>
+    <t>Some unit types may not be listed in the formula dialog box, but can be accessed by typing them directly (i.e. "cm" or "kg")</t>
+  </si>
+  <si>
+    <t>Change values from one unit of measurement to another (lbs to kg, celcius to fahrenheit, minutes to seconds, etc)
+Unit list is dynamic, and depends on the "from unit" argument</t>
+  </si>
+  <si>
+    <t>TODAY &amp; NOW</t>
+  </si>
+  <si>
+    <t>Use TODAY() and NOW() functions to return the current date or time.
+NOTE: These are volatile functions, meaning that they automatically recalculate with any workbook change
+-Use CTRL ; shortcut to return the current day as a hard-coded value, or 
+-Use CTRL SHIFT ; to return the current time
+Common use cases:
+-displaying the current date or time in a worksheet cell
+-creating scheduling or timeline tools that update with any workbook change</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Extracts the time values from a date-time stamp
+Example: C4 = 12/22/2022 21:33
+TIME(hour, minute, second)
+TIME(HOUR(C4),MINUTE(C4))</t>
+  </si>
+  <si>
+    <t>Identifies cells (input cells) which affect the value of the one selected (output cell)</t>
+  </si>
+  <si>
+    <t>Use Stats functions for pivot-style reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional stats functions-summarize data given a certain condition or set of conditions (SUMIFS, COUNTIFS, AVERAGEIFS) can be used to generate filtered values just like pivot tables. 
+While pivots are ideal for unstructured analysis (when you don't really know what you're looking for and want to explore your data), stats functions are a great tool for building custom reports and dashboards (when you know what you want to show in your report; this method will provide more flexibility)
+Common use cases: 
+-Designing custom-formatted, dynamic reports without using pivot tables
+-filtering or segmenting raw data based on a given set of criteria </t>
+  </si>
+  <si>
+    <t>Count words in a cell using text formulas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combination of LEN, SUBSTITUTE, and TRIM
+Common use cases: 
+-Adding counters in cases where word counts are important
+-Analyzing text fields (tweets, blogs, ad copy, etc) based on length
+Example: 
+=LEN(TRIM(A2))-LEN(SUBSTITUTE(TRIM(A2)," ",""))+1
+^In this example, first use the SUBSTITUTE function to remove the spaces, then use LEN to count the number of characters in the new text string (no spaces). Then, use LEN again to find the difference between the number of characters in the text string with no spaces and the original text string. The value will be equal to the number of spaces in the text string. Add 1, since there is always one additional word in the text string (compared to spaces) since every sentence begins and ends with a word. To account for the possiblity of a leading or trailing space, use the TRIM function. </t>
+  </si>
+  <si>
+    <t>Create Dependent Drop-downs with INDIRECT</t>
+  </si>
+  <si>
+    <t>Enables you to create a primary drop-down menu and a secondary drop-down menu that changes based on the user's selection in the primary drop-down. 
+Use INDIRECT and Data Validation to create drop-down lists that update based on user selections:
+-Step 1: Create individual lists containing all sets of possible selections
+-Step 2: Turn each list into a named range using the Name Manager or Name Box (be consistent with your names!)
+-Step 3: Create a second drop-down, and configure the list source to reference the first drop-down cell, wrapped in INDIRECT. 
+Common use cases:
+-Creating dynamic reports with multiple user inputs
+-Configuring drop-down lists to prevent users from selecting invalid combinations of options</t>
+  </si>
+  <si>
+    <t>Create Dynamic Links Using Hyperlink</t>
+  </si>
+  <si>
+    <r>
+      <t>Use HYPERLINK to connect users straight to specific workbook locations. 
+Syntax is extremely specific;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for example, the following would to Sheet1 cell A1:
+=HYPERLINK("#'Sheet1'!A1","LinkName")
+Note: You can replace a hard-coded sheet name with a cell reference, but you need to concatenate it with the hash, exclamation point, and quotation marks as shown:
+=HYPERLINK("#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&amp;A1&amp;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!A1","LinkName")
+Common use cases: 
+-Adding tools to help users navigate large or complex workbooks
+-creating reports with links to additional details or data sources</t>
+    </r>
+  </si>
+  <si>
+    <t>Find Value Ranges using "Fuzzy Match" VLOOKUPS</t>
+  </si>
+  <si>
+    <t>Approximate (aka "Fuzzy") Match can be used to determine where a specific lookup value falls within a given set of ranges
+-instead of finding an exact match, this finds the closest match that is equal to or less than the lookup value.
+-In the [range_lookup] argument of VLOOKUP, use TRUE (1) for fuzzy match
+Note: Groups must be defined by the minimum value, and in ascending order. 
+Common use cases:
+-Defining variable commission rates based on agent sales volume
+-Calculating tiered discounts based on purchase quantity</t>
+  </si>
+  <si>
+    <t>RANDOMIZE ITEMS with OFFSET &amp; RANDBETWEEN</t>
+  </si>
+  <si>
+    <t>TIP: Rather than hard-coding the max random value, use a COUNTA function to automatically count the length of the list</t>
+  </si>
+  <si>
+    <t>Combine OFFSET with RANDBETWEEN to jump to random rows within a cell range. 
+-Since RANDBETWEEN is a volatile function, the result will automatically recalculate with any workbook change (or F9 shortcut).
+Common use cases: 
+-Creating models or scenarios with randomized inputs
+-Building your own hilarious band name generator</t>
+  </si>
+  <si>
+    <t>Combine INDEX &amp; MATCH for a flexible lookup</t>
+  </si>
+  <si>
+    <t>INDEX &amp; MATCH offer several benefits over traditional VLOOKUP functions:
+-No hard-coded column index; MATCH can identify headers and automatically pull values from the correct columns
+-Lookup values don't need to live in the first column of the table array
+-More flexibility for custom or complex cases (like finding 2nd or 3rd matches)
+Common use cases: 
+-Populating many lookup columns without having to manually update formulas
+-Working with more complex scenarios (like lookups with multiple matches in the table array)</t>
+  </si>
+  <si>
+    <t>Count matching items between two lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note:  either list can be used as the basis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine SUMPRODUCT with COUNTIF to return the number of matching values across multiple lists
+-SUMPRODUCT acts like an array formula, iterating through each row of one list to search for matches in the other
+-COUNTIF assigns each row as a 1 (if a match exists) or a 0, and SUMPRODUCT sums the resulting array of values
+Common use cases:
+-calculating the overlap between two lists
+-Confirming that lists are unique to avoid double-counting errors. </t>
+  </si>
+  <si>
+    <t>Count duplicate or unique rows in a list</t>
+  </si>
+  <si>
+    <t>Tools like Pivots or Power Query, which includes a "Count Distinct" option, often offer simpler alternatives</t>
+  </si>
+  <si>
+    <t>Counting duplicates and uniques with cell formulas alone can be deceptively tricky. 
+One option is to use SUMPRODUCT and COUNTIF to count unique values, and then subtract from the total count to identify the number of duplicate values. 
+Example: 
+Total items: =COUNTA(range1)
+Unique items: =SUMPRODUCT(1/COUNTIF(range1,range1))
+Duplicates: =Total items - Unique items
+Common use cases:
+-calculating the number of unique or distinct products ordered
+-error-checking to avoid inflation caused by duplicate records</t>
+  </si>
+  <si>
+    <t>Use COUNTIF to handle many-to-many lookups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel lookup formulas are designed to work with 1-to-1 or 1-to-Many relationships (only one instance of each primary key)
+-If you have a many-to-many relationship (multiple matches), you can use COUNTIF, INDEX, and MATCH formulas to return values from subsequent matches
+Common use cases: 
+-Tracking historical changes within an existing lookup table (e.g. product prices or store addresses that may have changed at one point in time)
+Note: Make sure to understand why there are multiple instances of your key, and confirm that they are valid records
+*Open Excel_Pro_Tips workbook saved in the Maven Analytics&gt;Pro Tips folder on onedrive in order for the link column C to work*
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1598,7 +1855,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1610,6 +1867,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1632,10 +1912,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1646,8 +1927,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1982,128 +2267,128 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1CDB4-16A2-471A-B7CC-C593C8927033}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2128,10 +2413,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2139,112 +2424,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" t="s">
         <v>297</v>
-      </c>
-      <c r="C8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2254,6 +2539,172 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5A7D92-1903-4501-AA88-DB9EDC942500}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>HYPERLINK("#'[Excel_Pro_Tips.xlsx]Many-to-Many Lookups'!$A$1","Link")</f>
+        <v>Link</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865E98F8-0C8D-4A50-B017-B2B700B42A0D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -2284,108 +2735,108 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2413,121 +2864,121 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2555,156 +3006,156 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2733,89 +3184,89 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="295.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G9" t="str">
         <f>MID(F9,2,3)</f>
@@ -2824,48 +3275,48 @@
     </row>
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2894,54 +3345,54 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2971,165 +3422,165 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
         <v>254</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3142,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0533D77-079A-41A6-9EF7-770C144841DE}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3159,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3175,115 +3626,123 @@
     </row>
     <row r="3" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" t="s">
         <v>178</v>
-      </c>
-      <c r="C5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>201</v>
+    </row>
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3312,29 +3771,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3350,7 +3809,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3365,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3376,51 +3835,51 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>316</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_formulas_charts_reference.xlsx
+++ b/Excel_formulas_charts_reference.xlsx
@@ -1,31 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c54a924b2259718/Documents/GitHub/proj-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="8_{1FFACFBD-B999-4626-930C-A8DD19060362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C61F132F-94AB-4796-8D68-685E697AD139}"/>
+  <xr:revisionPtr revIDLastSave="1789" documentId="8_{1FFACFBD-B999-4626-930C-A8DD19060362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CF0904D-66AC-4962-8A73-40821B6E7FD9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{2FB6B6D4-FE40-48D3-865E-DAA828CD10B6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="20" activeTab="24" xr2:uid="{2FB6B6D4-FE40-48D3-865E-DAA828CD10B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Text " sheetId="1" r:id="rId1"/>
-    <sheet name="Conditional &amp; Logical" sheetId="7" r:id="rId2"/>
-    <sheet name="Statistical Functions" sheetId="8" r:id="rId3"/>
-    <sheet name="Lookup &amp; Reference" sheetId="9" r:id="rId4"/>
-    <sheet name="Formatting" sheetId="10" r:id="rId5"/>
-    <sheet name="Dynamic Array" sheetId="11" r:id="rId6"/>
-    <sheet name="Date &amp; Time" sheetId="2" r:id="rId7"/>
-    <sheet name="Misc" sheetId="12" r:id="rId8"/>
-    <sheet name="Formula Auditing" sheetId="5" r:id="rId9"/>
-    <sheet name="Shortcuts" sheetId="6" r:id="rId10"/>
-    <sheet name="Formulas Pro Tips" sheetId="14" r:id="rId11"/>
-    <sheet name="Basic charts &amp; graphs " sheetId="13" r:id="rId12"/>
+    <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
+    <sheet name="Text " sheetId="1" r:id="rId2"/>
+    <sheet name="Conditional &amp; Logical" sheetId="7" r:id="rId3"/>
+    <sheet name="Statistical Functions" sheetId="8" r:id="rId4"/>
+    <sheet name="Lookup &amp; Reference" sheetId="9" r:id="rId5"/>
+    <sheet name="Formatting" sheetId="10" r:id="rId6"/>
+    <sheet name="Dynamic Array" sheetId="11" r:id="rId7"/>
+    <sheet name="Date &amp; Time" sheetId="2" r:id="rId8"/>
+    <sheet name="Misc" sheetId="12" r:id="rId9"/>
+    <sheet name="Formula Auditing" sheetId="5" r:id="rId10"/>
+    <sheet name="Shortcuts" sheetId="6" r:id="rId11"/>
+    <sheet name="Formulas Pro Tips" sheetId="14" r:id="rId12"/>
+    <sheet name="Productivity Pro Tips" sheetId="15" r:id="rId13"/>
+    <sheet name="Formatting Pro Tips" sheetId="16" r:id="rId14"/>
+    <sheet name="Basic charts &amp; graphs " sheetId="13" r:id="rId15"/>
+    <sheet name="VBA basics" sheetId="17" r:id="rId16"/>
+    <sheet name="VBA looping" sheetId="18" r:id="rId17"/>
+    <sheet name="VBA built-in functions" sheetId="19" r:id="rId18"/>
+    <sheet name="VBA debugging " sheetId="20" r:id="rId19"/>
+    <sheet name="VBA procedure scope" sheetId="21" r:id="rId20"/>
+    <sheet name="VBA Loops" sheetId="23" r:id="rId21"/>
+    <sheet name="VBA Arrays" sheetId="24" r:id="rId22"/>
+    <sheet name="VBA files&amp;folders" sheetId="25" r:id="rId23"/>
+    <sheet name="VBA, PivotTables &amp; Formulas" sheetId="26" r:id="rId24"/>
+    <sheet name="Analytics " sheetId="27" r:id="rId25"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="24" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="24" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="24" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="24" hidden="1">'Analytics '!$A$13</definedName>
+    <definedName name="solver_typ" localSheetId="24" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="24" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="24" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="826">
   <si>
     <t>Function Name</t>
   </si>
@@ -109,13 +131,7 @@
     <t>Ctrl + Arrow</t>
   </si>
   <si>
-    <t>Jumps to the last cell in a data region, in the direction of the arrow</t>
-  </si>
-  <si>
     <t>Ctrl + Shift + Arrow</t>
-  </si>
-  <si>
-    <t>Selects to the last cell in a data region, in the direction of the arrow</t>
   </si>
   <si>
     <t>Ctrl + Home/End</t>
@@ -561,9 +577,6 @@
   </si>
   <si>
     <t>Alt shortcuts</t>
-  </si>
-  <si>
-    <t>Alt+H+V+F</t>
   </si>
   <si>
     <t xml:space="preserve">Paste as formula </t>
@@ -1581,9 +1594,6 @@
   </si>
   <si>
     <t xml:space="preserve">opens the Format Cells dialogue box </t>
-  </si>
-  <si>
-    <t>Alt+H+V+V</t>
   </si>
   <si>
     <t xml:space="preserve">Paste as values </t>
@@ -1847,6 +1857,2089 @@
 *Open Excel_Pro_Tips workbook saved in the Maven Analytics&gt;Pro Tips folder on onedrive in order for the link column C to work*
 </t>
   </si>
+  <si>
+    <t>Customize workbook footer stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Excel footer bar typically shows the SUM, AVERAGE, and COUNT of a selected range of values, by default. 
+Right click the footer to customize your options, and display additional stats like Numerical Count, Max, and Min, as well as other notifications (Flash Fill results, Caps Lock, Macro status, etc. </t>
+  </si>
+  <si>
+    <t>Jumps to the last cell in a data region (contiguous range), in the direction of the arrow</t>
+  </si>
+  <si>
+    <t>Selects to the last cell in a data region (contiguous range), in the direction of the arrow</t>
+  </si>
+  <si>
+    <t>Ctrl+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launches the "Go-To" menu, containing any named cell, ranges, or tables. </t>
+  </si>
+  <si>
+    <t>Alt-A-T</t>
+  </si>
+  <si>
+    <t>Alt-H-V-F</t>
+  </si>
+  <si>
+    <t>Alt-H-V-V</t>
+  </si>
+  <si>
+    <t>Add or remove filters</t>
+  </si>
+  <si>
+    <t>ALT-H-E-F</t>
+  </si>
+  <si>
+    <t>Clear formats</t>
+  </si>
+  <si>
+    <t>Insert a Pivot Table</t>
+  </si>
+  <si>
+    <t>ALT-N-V-T</t>
+  </si>
+  <si>
+    <t>Go To Special Options</t>
+  </si>
+  <si>
+    <t>CTRL -G launches the default "Go To" options, which allow you to jump to specific tables or named ranges in your workbook. 
+The SPECIAL menu (button) includes additional options to select specific types of cells or objects in the sheet (blanks, formulas, conditional formats, validation cells, etc.)
+Common use cases: 
+-quickly identifying or highlighting all cells containing formulas
+-Selecting and deleting all objects of a certain type in a worksheet with one click
+-identifying cells that have data validation rules applied (i.e. drop-downs)</t>
+  </si>
+  <si>
+    <t>Removing Blank Rows</t>
+  </si>
+  <si>
+    <t>Step 1: Use CTRL-G to launch the "Go To" menu, click Special, and select Blanks to select all blank rows in the sheet
+Step 2: Delete the selected rows, using any of the following options:
+Home &gt; Delete &gt; Delete Sheet Rows
+ALT-H-D-R
+Ctrl + - &gt; Shift Cells Up</t>
+  </si>
+  <si>
+    <t>Flash Fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More powerful and flexible than Auto Fill. It identifies patterns based on a sample set of given values, and uses those patterns to populate the whole column. </t>
+  </si>
+  <si>
+    <t>Split Text Strings using Text to Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your data is stored as text or separated values (i.e. .txt or .csv files), use Text to Column to split values into columns and rows.
+-Option 1: Open a .txt file from Excel to launch the Text to Column Wizard
+-Option 2: Open a .csv file or copy data into one column, and use Data &gt; Text to Column
+Note: Both methods include options to specify delimiters, define text qualifiers , and format or exclude columns </t>
+  </si>
+  <si>
+    <t>Compare files with synchronous scrolling</t>
+  </si>
+  <si>
+    <t>Synchronous scrolling allows you to arrange Excel workbooks side by side and scroll through them simultaneously.
+-Step 1: Open both workbooks that you want to compare
+-Step 2: Click: View Tab &gt; View Side by Side in order to "stack" your windows
+-Step 3: Activate: View &gt; Synchronous Scrolling to allow windows to scroll simultaneously 
+-Note: To change the side-by-side view from horizontal to vertical or vice-versa, select "Arrange All" 
+Common use cases:
+-spot-checking workbooks for version control issues
+-making quick visual comparisons between similar files</t>
+  </si>
+  <si>
+    <t>Extract unique values with advanced filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Advanced Filter allows you to either filter in place or copy unique values to a new location. 
+Note: To extract unique values into a new list, select "Copy to another location" and "Unique records only" 
+-Note: The UNIQUE function is actually a better/more flexible option </t>
+  </si>
+  <si>
+    <t>Simplify formulas with named ranges and tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compared to Name Ranges, formatting as a Table (Ctrl+T) allows you to:
+-Automatically ingest new rows of data (you won't have to update your range)
+-Access quick formatting &amp; filtering options (fixed headers, banded rows, etc)
+-Write efficient calculated columns vs. traditional (A1-style) cell formulas
+* To reference a column in a formula use [@ColumnName] </t>
+  </si>
+  <si>
+    <t>Protecting Cells &amp; Formulas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Protection tab in the Format Cells dialog box allows you to specify how cells behave once the worksheet is protected:
+-Locked means that users can view the cell contents but not edit (default)
+-Hidden means that users cannot see any underlying formulas or references
+Note: All cells are locked by default; you must actively unprotect the specific cells that you want to remain editable. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use the Ctrl+1 shortcut to launch the Format Cells dialog box. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+To unlock/allow edits on specific cells, select the cell, hit Ctrl+1, and then uncheck the "Locked" field in the Protection Tab. </t>
+    </r>
+  </si>
+  <si>
+    <t>Multi-Level Row &amp; Column Sorting</t>
+  </si>
+  <si>
+    <t>Instead of using column header options, use the Sort tool to apply multi-level sorting. 
+-Example: Sort a table alphabetically by Country, then Province, and finally by Price. 
+Select entire columns and use the Options menu to sort Left to Right, which allows you to sort columns instead of rows
+-To sort columns, select the entire range before selecting the Sort tool
+Note: In addition to values, you can sort based on cell color, font color, or icon.
+Common use cases:
+-applying complex or custom sorting rules to a table or range
+-rearranging columns (alphabetically or by color) to organize a large table</t>
+  </si>
+  <si>
+    <t>Advanced Filtering</t>
+  </si>
+  <si>
+    <t>Use Ctrl to apply formatting shortcuts</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+1: Number
+Ctrl+Shift+2: Time
+Ctrl+Shift+3: Date
+Ctrl+Shift+4: Currency
+Ctrl+Shift+5: Percentage
+Ctrl+Shift+6: Scientific
+Ctrl+Shift+~: Reverts to General format</t>
+  </si>
+  <si>
+    <t>Snap to Grid to align workbook objects</t>
+  </si>
+  <si>
+    <t>Hold the ALT key as you drag or resize objects to "snap" them to cell borders
+Bonus tips: 
+-Hold Ctrl as you drag the object to create a copy of the object at the same time
+-Hold Shift as you drag to limit movement ot the horizontal or vertical plane</t>
+  </si>
+  <si>
+    <t>Hide workbook elements to reduce clutter</t>
+  </si>
+  <si>
+    <t>Format Painter</t>
+  </si>
+  <si>
+    <t>Color &amp; Border Design</t>
+  </si>
+  <si>
+    <t>Freezing Panes</t>
+  </si>
+  <si>
+    <t>Center Across Selection</t>
+  </si>
+  <si>
+    <t>Use the View &gt; Show checkboxes to hide workbook elements from view, including gridlines, headings, or the formula bar. 
+To collapse the ribbon from view, click the caret icon (^) in the lower right corner
+-To anchor the ribbon, select a tab and click the "pin" icon (where the caret used to be)
+Note: Gridlines and headings are specific to individual sheets, but formula bar and ribbon settings impact the entire workbook</t>
+  </si>
+  <si>
+    <t>Copies all formatting settings, including conditional formatting rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filler colors and borders aren't just stylistic tools; they can be used strategically to improve readability, create spacing, and draw attention to key metrics or trends
+-Hide worksheet gridlines and add white borders to create and clean and polished look
+-under the border options in the Home tab, use Line Color to set the border color and Line Style to determine the thickness  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commonly used to freeze (fix) the first row or column in place while allowing the rest of the sheet to scroll. View &gt; Freeze Panes 
+Note: Use the Freeze Panes option when you want to fix both rows and columns. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Freezes all cells above and to the left of the selected cell. </t>
+    </r>
+  </si>
+  <si>
+    <t>Instead of merging, select a cell range, launch the Format Cells dialog box (Ctrl+1), and choose Center Across Selection in the Alignment tab (Horizontal options). This avoids issues caused by merging cells. 
+Common use cases: 
+-formatting text headers within reports or dashboards
+-customizing alignment in cases where merged cells cannot be used</t>
+  </si>
+  <si>
+    <t>Use custom formatting to make text invisible</t>
+  </si>
+  <si>
+    <t>Use a custom number format with type ";;;" to make text invisible
+This does not delete the underlying values, it simply prevents them from displaying within the cells
+Common use cases: 
+-creating heatmaps to visualize data while obscuring underlying values
+-transforming a column of values into data bars or icon sets to visualize high-level patterns or trends</t>
+  </si>
+  <si>
+    <t>Properly format zip codes and phone numbers</t>
+  </si>
+  <si>
+    <t>Zip codes and phone numbers can be difficult to work with, since Excel often converts them to numerical fields by default. Most versions of Excel include a Special formatting category for dealing with these specific types of values (as well as SS#)
+Note: You can also use text functions like TEXT(A1, "0####") to format zip codes or LEFT/MID/RIGHT to format phone numbers</t>
+  </si>
+  <si>
+    <t>Group columns or rows to simplify reports</t>
+  </si>
+  <si>
+    <t>Use the Group option (Data &gt; Group) to hide selected rows or columns from view. 
+Excel automatically generates toggles (+/-) to show or hide individual groups, as well as buttons to show or hide all rows or columns with one click (labeled "1" and "2")</t>
+  </si>
+  <si>
+    <t>Convert text strings to date values</t>
+  </si>
+  <si>
+    <t>Date formats tend to vary considerably, making them one of the most challenging data types to work with. 
+Use text functions (LEFT/MID/RIGHT/&amp;) to rearrange date components from a string, and DATEVALUE to convert the result</t>
+  </si>
+  <si>
+    <t>Define your own formula-driven formats</t>
+  </si>
+  <si>
+    <t>Advanced number formats</t>
+  </si>
+  <si>
+    <t>Use formula rules to format cells using custom or complex logic that standard conditional formatting tools can't handle. For example, formatting an entire row in a table or range based on the values in one column, or applying formats to cells that meet multiple, formula-based criteria. 
+Note: intellisense is not available within the conditional formatting dialog box. 
+Common use case: highlighting cells/rows that meet multiple criteria</t>
+  </si>
+  <si>
+    <t>Use Custom formatting options to select more complex formats, or define your own using Excel's custom formatting syntax. 
+Custom formats contain up to 4 conditions, separated by semicolons (A;B;C;D)
+A: format for positive numbers 
+B: format for negative numbers 
+C: format for zeros 
+D: format for text 
+Learn more: http://bit.ly/2A1FJUD
+Common use cases: applying custom formats to positive vs. negative values to draw attention to important patterns or trends
+Abbreviating large values with "K" or "M" labels (no formulas necessary)</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Record  Macro shortcut</t>
+  </si>
+  <si>
+    <t>ALT -T -M - R
+"Alt, tab, macro, record"</t>
+  </si>
+  <si>
+    <t>Shortcut to run macro</t>
+  </si>
+  <si>
+    <t>Ctrl + __
+Use capital letters. Otherwise, you will override the default ctrl shortcuts</t>
+  </si>
+  <si>
+    <t>Visual Basic Editor (VBE)</t>
+  </si>
+  <si>
+    <t>shortcut to open: Alt + F11</t>
+  </si>
+  <si>
+    <t>How to run macros/VBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt + F8
+Insert a button and assign it to a macro
+</t>
+  </si>
+  <si>
+    <t>VBA Keyboard shortcuts</t>
+  </si>
+  <si>
+    <t>Indent Code</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Remove Indent from Code</t>
+  </si>
+  <si>
+    <t>Shift + Tab</t>
+  </si>
+  <si>
+    <t>Complete Word</t>
+  </si>
+  <si>
+    <t>Ctrl + space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open object browser </t>
+  </si>
+  <si>
+    <t>Open code window</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>Display properties window</t>
+  </si>
+  <si>
+    <t>Open online help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run project </t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step into code </t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>Toggle breakpoint</t>
+  </si>
+  <si>
+    <t>Clear all breakpoints</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+F9</t>
+  </si>
+  <si>
+    <t>VBA</t>
+  </si>
+  <si>
+    <t>VBA is object-oriented. Before you perform any action, you need to specify on which object to perform that action 
+Object first, then action 
+Object hierarchy
+Excel's object model: Application &gt; workbooks &gt; single workbook &gt; worksheets &gt; single worksheet &gt; range 
+Example: how the code would look in VBA when referring to a range on an Excel worksheet: 
+Application.Workbooks("Name").Worksheets("WSName").Range("A1")
+Application.ThisWorkbook.Worksheets("WSName").Range("A1")
+Worksheets("WSName").Range("A1") --&gt; Assumes active workbook
+ActiveCell --&gt; assumes the cell that is marked in the active worksheet</t>
+  </si>
+  <si>
+    <t>Properties in VBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property is what an object has
+Properties come after the object hierarchy
+Example: 
+Some properties don't have details:
+Range("A1").Value 
+Some properties return an object:
+Range("A2").Font.Color --&gt; The color is property of the font, and the font is a property of the range. </t>
+  </si>
+  <si>
+    <t>Object methods</t>
+  </si>
+  <si>
+    <t>Method is what an object does 
+Methods can have additional information 
+Ways to write this: 
+Object.Method [argument value],[argument value] 
+Object.Method ArgumentName:= [argument value]
+Methods can change properties
+Methods can have arguments, but they don't require arguments; it depends on the method. The arguments are built in 
+Range("A2").Clear --&gt; no further arguments
+Range("A3").Delete --&gt; 1 optional argument (Shift)
+  Range("A2).Delete xlShiftToLeft
+Sheet1.Copy --&gt; 2 optional arguments (Before, After) which are optional but exclusive
+  Sheet1.Copy After:=Sheet3 --&gt;  you can name the argument you're using, or:
+  Sheet1.Copy , Sheet2 --&gt; write it like this to indicate you're skipping the Before argument</t>
+  </si>
+  <si>
+    <t>Find the Correct Property &amp; Method</t>
+  </si>
+  <si>
+    <t>Use the macro recorder to get object names, properties and methods. 
+Use the object library (F2) to dig deeper
+Press F1 when on an object, property, or method to get help for the MSDN Microsoft Help Site. 
+Use IntelliSense-Let VBA suggest the right properties and methods. Check options from Tools/Options.
+Use complete word (Ctrl+Space) to get suggestions
+Use the Immediate Window to query (e.g. color codes) or test code
+Search the internet and online forums</t>
+  </si>
+  <si>
+    <t>Key Takeaways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. You refer to an object through its position in the object hierarchy. The dot is used as a separator. If you do not specify the parent, Excel assumes it's the active object. 
+2. You don't need to select objects to manipulate them. The macro recorder "selects" but to write code, it's more efficient not to refer directly to objects and properties (exceptions apply)
+3. Objects have specific properties and methods
+4. Properties can return a reference to another object. For example, Range("A2").Interior.Color: The interior property returns an interior object which has the color property. 
+--another example is to think of a shoe. A shoe is an object, and a heel is a property of the shoe. However, the heel is also an object, which can have its own properties, such as height, shape, etc. 
+5. Macro and VBA code is kept inside Sub Procedures (for functions it's Function Procedures)
+6. To find the correct object, property, or method you can record macros, use the object library (F2), use MSDN help (F1), Intellisense, internet search, and immediate windwo to query and test code </t>
+  </si>
+  <si>
+    <t>Most Useful Range Properties &amp; Methods</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Cells</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Column/Row</t>
+  </si>
+  <si>
+    <t>CurrentRegion</t>
+  </si>
+  <si>
+    <t>EntireColumn/EntireRow</t>
+  </si>
+  <si>
+    <t>Resize</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Show the underlying value in a cell. This is the default property of the range object. 
+(Read/Write)</t>
+  </si>
+  <si>
+    <t>Returns a cell or range of cells within a range object 
+(Read/Write)</t>
+  </si>
+  <si>
+    <t>Returns the last cell of the range. Similar to Ctrl+ --&gt; or (up,down, etc)
+(Read only)</t>
+  </si>
+  <si>
+    <t>Returns a new range based on offset row &amp; column arguments
+(Read/write)</t>
+  </si>
+  <si>
+    <t>Returns the column/row number of a range. If you select more than one cell, column/row returns the first occurrence in the range. 
+(Read only)</t>
+  </si>
+  <si>
+    <t>Returns the number of cells in a range 
+(Read only)</t>
+  </si>
+  <si>
+    <t>Returns a range object that represents the entire row or column
+(Read only)</t>
+  </si>
+  <si>
+    <t>Changes the size of the range by defining the rows &amp; columns for resizing</t>
+  </si>
+  <si>
+    <t>Returns a font object that has other properties (e.g. bold)
+(Read/write</t>
+  </si>
+  <si>
+    <t>shows the range address including the $ signs
+(Read only)</t>
+  </si>
+  <si>
+    <t>Used with other properties such as .address returns the range of data
+(Read only)
+-great for generating dynamic ranges</t>
+  </si>
+  <si>
+    <t>NumberFormat</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Places a formula in a cell. To make sure your VBA code is compatible with other languages of Excel, your VBA formulas should use English syntax. You can record these with the macro recorder. The macro recorder uses FormulaR1C1 syntax. 
+(Read/write)</t>
+  </si>
+  <si>
+    <t>Define Number format (uses English version)
+(Read/write)</t>
+  </si>
+  <si>
+    <t>Returns the data as string and includes formatting
+(Read only)</t>
+  </si>
+  <si>
+    <t>HasFormula</t>
+  </si>
+  <si>
+    <t>Returns True, False, or Null if the range has a mix 
+(Read only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties </t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>PasteSpecial</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>SpecialCells</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>PrintOut</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a practical method because it has paste destination as its argument. This means you just need one line of code. </t>
+  </si>
+  <si>
+    <t>Allows using of Excel's Paste Special options. To use more than one option, repeat the line of code with the new option</t>
+  </si>
+  <si>
+    <t>Deletes contents and cell formatting in a specific range</t>
+  </si>
+  <si>
+    <t>Delete the cells and shifts the cell around the area to fill up the deleted range. The delete method uses an argument to define how to shift the cells. Select XLToLeft or XLUp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a range that matches the specified cell types. This method has two arguments. XlCellType is required (such as cells with formulas or comments) and an optional argument to define more detail if constant and formula cell type is used in the first argument. </t>
+  </si>
+  <si>
+    <t>Sorts a range of values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also a method of the worksheet object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used by the macro recorder to select a cell but when writing VBA, it is not necessary to select objects. Code is faster without selecting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used with other properties such as .Color to set colors
+(Read/write)
+Note: To be exact in Color, use the Color property and not ColorIndex. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Methods to Find the Last Row: </t>
+  </si>
+  <si>
+    <t>Use the End property of the Range object:</t>
+  </si>
+  <si>
+    <t>Range("K6").Value = Cells(Rows.Count,1).End(xlUp).Row
+Range("K6").Value=Range("A4").End(xlDown).Row
+Example for last column: 
+Range("K8").Value=Cells(4,Columns.Count).End(xlToLeft).Column</t>
+  </si>
+  <si>
+    <t>Use the CurrentRegion Property of the Range Object</t>
+  </si>
+  <si>
+    <t>Range("K10").Value=Range("A4").CurrentRegion.Rows.Count</t>
+  </si>
+  <si>
+    <t>Use the SpecialCells Method of the Range Object</t>
+  </si>
+  <si>
+    <t>Range("K11").Value=Cells.SpecialCells(xlCellTypeLastCell).Row</t>
+  </si>
+  <si>
+    <t>Use the UsedRange Property of the Worksheet Object</t>
+  </si>
+  <si>
+    <t>Range("K12").Value=ActiveSheet.UsedRange.Rows.Count</t>
+  </si>
+  <si>
+    <t>Methods to Copy and Resize Variably Sized Ranges</t>
+  </si>
+  <si>
+    <t>Copy Method for a variably sized range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range("A4").CurrentRegion.Copy Range("J4") </t>
+  </si>
+  <si>
+    <t>Copy Method for a fixed range</t>
+  </si>
+  <si>
+    <t>Range("A4:E10").Copy Range("J4")</t>
+  </si>
+  <si>
+    <t>Range("A4").CurrentRegion.Copy
+Range("J20").PasteSpecial xlPasteValuesAndNumberFormats
+Range("J20").PasteSpecial xlPasteComments</t>
+  </si>
+  <si>
+    <t>PasteSpecial Method to use Excel's Paste Special options
+*to add more paste special options, add a new line</t>
+  </si>
+  <si>
+    <t>Resize property to return a changed range</t>
+  </si>
+  <si>
+    <t>Range("A4").CurrentRegion.Offset(1,0) 
+_.Resize(Range("A4").CurrentRegion.Rows.Count-1).Copy Range("A20")</t>
+  </si>
+  <si>
+    <t>How to best reference worksheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the code name of the sheet </t>
+  </si>
+  <si>
+    <t>You can change the code name in the property window 
+shDest.Range("A3").Value
+Two advantages: 
+User can be free to change the tab name
+Intellisense works perfectly with code names (doesn't work with ActiveSheet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the Worksheets collection </t>
+  </si>
+  <si>
+    <t>Refer to the Tab by name 
+Worksheets("Destination").Range("A3").Value</t>
+  </si>
+  <si>
+    <t>Use the index number of the worksheet</t>
+  </si>
+  <si>
+    <t>Can be risky if the sheets are reordered or a new sheet is inserted in the middle
+Worksheets(6).Range("A3").Value</t>
+  </si>
+  <si>
+    <t>Use ActiveSheet</t>
+  </si>
+  <si>
+    <t>ActiveSheet.Range("A3").Value</t>
+  </si>
+  <si>
+    <t>How to best reference workbooks</t>
+  </si>
+  <si>
+    <t>ThisWorkBook</t>
+  </si>
+  <si>
+    <t>Use the Workbooks Collection</t>
+  </si>
+  <si>
+    <t>ActiveWorkBook</t>
+  </si>
+  <si>
+    <t>Workbooks(1)</t>
+  </si>
+  <si>
+    <t>to reference the workbook where the macro is written</t>
+  </si>
+  <si>
+    <t>Use the name of the workbook. The workbook needs to be open, otherwise you need to use the Open statement first
+Workbooks("YourWorkBookName.xlsx")</t>
+  </si>
+  <si>
+    <t>Make sure the correct workbook is active</t>
+  </si>
+  <si>
+    <t>Using the index number is risky as it depends on the order in which the workbooks have been opened</t>
+  </si>
+  <si>
+    <t>The best/most common methods are the first two</t>
+  </si>
+  <si>
+    <t>Different methods to reference cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Range("A1") style to reference a single cell. 
+Range("A1","C1") or Range("A1:C1") for many cells
+Use the Cells or Offset Property </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data types for variables
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Variant is the default type for variables and takes up the most memory </t>
+    </r>
+  </si>
+  <si>
+    <t>object: for ranges, worksheets, workbooks 
+double: good for high precision decimals and percentages</t>
+  </si>
+  <si>
+    <t>Data types notes</t>
+  </si>
+  <si>
+    <t>Declaring variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declare variables before you use them 
+Declaring variables by defining a suitable data type has the following benefits: 
+-Your code will run faster
+-Your code will be less prone to mistakes
+Dim myText As String (Dim is the keyword, the name is up to you, String is the data type) </t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A group of variables which share a common name. 
+You refer to each variable by their position in the array
+Example (this is a one-dimensional array. 1 is the lower bound, 12 is the upper bound. If you don't declare a lower bound, the default is 0) 
+Dim MyMonth(1 To 12) As String 
+MyMonth(1)="Jan"
+MyMonth(2)-"Feb" 
+Example of a two-dimensional array: 
+Dim MonthSales(1 To 12, 1 to 3) as Variant 
+^the first dimension is the month, the second is the company (there are three companies) </t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>You can also declare constants. Constants are values and text that don't change. 
+Const myScenario As String = "Actual" 
+Const ProfitCen as Long = 99999</t>
+  </si>
+  <si>
+    <t>Object Variables</t>
+  </si>
+  <si>
+    <t>Variables can also hold objects. Common objects are: 
+1. Workbook Object: Dim NewBook As Workbook
+2. Worksheet Object: Dim NewSheet As Worksheet
+3. Range Object: Dim NewRange As Range
+To assign variables to objects, you need to use the SET statement 
+Set NewBook = Workbooks.Add
+* All "usual" VBA assignments are done with the LET statement. However, this is an optional keyword and is usually not used. 
+LastRow = Rows.Count 
+Let LastRow = Rows.Count</t>
+  </si>
+  <si>
+    <t>Variable Scope</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables exist only when the procedure runs. Dim is inside the procedure. Memory is freed after the procedure ends. </t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Variable exists for ALL procedures within the module. Dim is outside any procedure, typically right below Option Explicit. Value is kept in memory after procedure completes.</t>
+  </si>
+  <si>
+    <t>All Modules and Procedures</t>
+  </si>
+  <si>
+    <t>Variable exists for ALL modules and ALL procedures. Use the keyword "Public" (instead of Dim) to declare these variables. Can be declared in any module before the first procedure. Value is kept in memory after procedure completes</t>
+  </si>
+  <si>
+    <t>*Note: you can set the scope of constants in the same way</t>
+  </si>
+  <si>
+    <t>Key Takeaways: variables and data types</t>
+  </si>
+  <si>
+    <t>1. use option explicit to minimize mistakes
+2. Pick the data type that uses the least bytes but can still handle the data you want to store in memory:
+-Byte: worksheet numbers, months, column headers (smaller data sets)
+-Long: to loop through rows
+-Integer: to loop through smaller data sets--e.g. master data
+-double: decimal, very large numbers and numbers where precision is required 
+3. Think about the scope of your variables: Procedure, Module, or Project? Declare these accordingly
+4. Use the SET statement to assign variables to objects. Data type assignments do not need a statement but can use the optional keyword "LET"</t>
+  </si>
+  <si>
+    <t>With &amp; End With</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits: 
+-faster code writing
+-easier code maintenance
+-faster code execution 
+</t>
+  </si>
+  <si>
+    <t>For….Each</t>
+  </si>
+  <si>
+    <t>Used to loop through collections
+loops through worksheets, ranges, etc. in one go 
+-execute code for all worksheets in a workbook
+-follow instructions for all cells in a range
+-run code for each comment inside the worksheet comments collection</t>
+  </si>
+  <si>
+    <t>If…Then statements for conditional outcomes</t>
+  </si>
+  <si>
+    <t>Similar to Excel formulas, you can use IF…Then in VBA
+You can handle as many conditions as you see fit
+You can also use AND, OR statements</t>
+  </si>
+  <si>
+    <t>If….Then….ElseIf….Else Example</t>
+  </si>
+  <si>
+    <t>Select Case, as alternative for many Ifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Case is a good alternative to If…ElseIf…Else constructs
+-you have a better overview
+-easier code maintenance
+-faster code execution. VBA leaves the Select Case construct the moment it arrives at a TRUE. Place the likely cases at the top of the code. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examples of Select Case </t>
+  </si>
+  <si>
+    <t>GoTo statement to change program flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can skip lines of code with the Goto statement. Why:
+-mainly for error handling
+-execute a different part of code depending on a condition
+To use GoTo:
+-Type the name of the label with colon (or number without colon)
+-You might need to exit sub before the label if you  have a message box or another VBA statement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example of GoTo </t>
+  </si>
+  <si>
+    <t>Text handling functions</t>
+  </si>
+  <si>
+    <t>InStr</t>
+  </si>
+  <si>
+    <t>Lcase</t>
+  </si>
+  <si>
+    <t>converts string to lower case</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>returns the lefthand side of a string based on a specified number of characters</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>returns the number of characters in a string</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>returns a specified number of characters from a string</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>returns a string and replaces a subset of the string with another string</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Returns the right hand side of a string based on specified number of characters</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Returns a string that contains spaces</t>
+  </si>
+  <si>
+    <t>StrConv</t>
+  </si>
+  <si>
+    <t>returns a string converted to uppercase, lowercase, proper case, or unicode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim </t>
+  </si>
+  <si>
+    <t>returns a string without leading or trailing spaces</t>
+  </si>
+  <si>
+    <t>Ucase</t>
+  </si>
+  <si>
+    <t>converts string to uppercase</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>VbNewLine</t>
+  </si>
+  <si>
+    <t>creates a new line in message box</t>
+  </si>
+  <si>
+    <t>VbNullString</t>
+  </si>
+  <si>
+    <t>returns a zero length string</t>
+  </si>
+  <si>
+    <t>VbTab</t>
+  </si>
+  <si>
+    <t>Adds a tab space in message box</t>
+  </si>
+  <si>
+    <t>returns the position of one string within another. Checks if one specific text is inside another text</t>
+  </si>
+  <si>
+    <t>Date handling</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>returns the current date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>returns the day of the month of a date</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Returns the hour of a time value</t>
+  </si>
+  <si>
+    <t>IsDate</t>
+  </si>
+  <si>
+    <t>Returns True if variable is a Date type</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>Returns the minute of a time value</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>returns the month of a date</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>returns a string for the month of a date (abbreviation possible)</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>returns the current date and time</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>returns the second portion of the time</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>returns the current time system</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Returns the number of seconds since midnight (good for adding a timer in code)</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Returns a number for the day of the week</t>
+  </si>
+  <si>
+    <t>WeekdayName</t>
+  </si>
+  <si>
+    <t>Returns a string for the day of the week</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>returns the year of a date</t>
+  </si>
+  <si>
+    <t>Formatting &amp; Converting</t>
+  </si>
+  <si>
+    <t>Cdate</t>
+  </si>
+  <si>
+    <t>converts expression to date data type</t>
+  </si>
+  <si>
+    <t>CInt</t>
+  </si>
+  <si>
+    <t>converts expression to integer data type</t>
+  </si>
+  <si>
+    <t>CLng</t>
+  </si>
+  <si>
+    <t>converts expression to Long data type</t>
+  </si>
+  <si>
+    <t>CStr</t>
+  </si>
+  <si>
+    <t>converts expression to String data type</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>shows an expression in the desired format</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>returns a string from a number</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>returns a number (double) from a string</t>
+  </si>
+  <si>
+    <t>Number Handling</t>
+  </si>
+  <si>
+    <t>Abs</t>
+  </si>
+  <si>
+    <t>Absolute value of a number</t>
+  </si>
+  <si>
+    <t>FormatNumber</t>
+  </si>
+  <si>
+    <t>formats an expression as number</t>
+  </si>
+  <si>
+    <t>FormatPercent</t>
+  </si>
+  <si>
+    <t>formats an expression as a percentage</t>
+  </si>
+  <si>
+    <t>IsNumeric</t>
+  </si>
+  <si>
+    <t>returns True if a cell or value is numeric</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>rounds a number</t>
+  </si>
+  <si>
+    <t>Text Files and Directory</t>
+  </si>
+  <si>
+    <t>CurDir</t>
+  </si>
+  <si>
+    <t>returns the current path</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>returns the name of the file or directory</t>
+  </si>
+  <si>
+    <t>EOF</t>
+  </si>
+  <si>
+    <t>Equals True if end of text file is reached</t>
+  </si>
+  <si>
+    <t>FileDateTime</t>
+  </si>
+  <si>
+    <t>date and time when a file was last modified</t>
+  </si>
+  <si>
+    <t>FileLen</t>
+  </si>
+  <si>
+    <t>number of bytes in a file</t>
+  </si>
+  <si>
+    <t>FreeFile</t>
+  </si>
+  <si>
+    <t>returns the next available file number for text files</t>
+  </si>
+  <si>
+    <t>Other useful functions</t>
+  </si>
+  <si>
+    <t>DoEvents</t>
+  </si>
+  <si>
+    <t>control is given back to the operating system to process other events</t>
+  </si>
+  <si>
+    <t>InputBox</t>
+  </si>
+  <si>
+    <t>displays a dialog box for user to input</t>
+  </si>
+  <si>
+    <t>IsEmpty</t>
+  </si>
+  <si>
+    <t>returns True if a cell is blank or a variable hasn't been initialized</t>
+  </si>
+  <si>
+    <t>Lbound</t>
+  </si>
+  <si>
+    <t>returns the smallest value in an array</t>
+  </si>
+  <si>
+    <t>MsgBox</t>
+  </si>
+  <si>
+    <t>displays a dialog box</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>returns a number that reflects the RGB color</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t>returns a string that specifies the data type of a variable</t>
+  </si>
+  <si>
+    <t>Ubound</t>
+  </si>
+  <si>
+    <t>returns the largest element of an array</t>
+  </si>
+  <si>
+    <t>VBA's MsgBox Function</t>
+  </si>
+  <si>
+    <t>Easily create info dialog boxes to communicate with the user and get simple responses such as ok, yes, no, or cancel
+The message box is a function, i.e. your macro is paused until the user provides a response
+You can use the MsgBox function by itself (don't use brackets) if you don't need a response from the user. If you need a response, the message box will return a result which you can capture in a variable (use brackets)</t>
+  </si>
+  <si>
+    <t>MsgBox Examples</t>
+  </si>
+  <si>
+    <t>VBA's InputBox Function</t>
+  </si>
+  <si>
+    <t>Excel's InputBox Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 benefits of using the input box method: 
+• you can specify the data type of input (not restricted to string)
+• excel performs a validation automatically 
+• you can select ranges
+Codes for data types: 
+</t>
+  </si>
+  <si>
+    <t>Excel's InputBox Method Examples</t>
+  </si>
+  <si>
+    <t>Easily create input dialog boxes to capture user input 
+Input Box always returns a string. If you write the result of the input box to a cell, Excel will automatically convert the answer to the correct type. For example if you input a number, it will be recognized as a number in the cell. 
+If you'd like to use the answer in your code, and the answer should be a number, you need to convert it to a number with the conversion function. For example the Val function. To validate if the input is a number, you can use the IsNumeric function</t>
+  </si>
+  <si>
+    <t>Methods to debug your code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. F8 or select Debug from the menu and then Step Into 
+-step through code in slow motion and see results
+2. Add breakpoints with F9 or Debug menu/Toggle Breakpoint. You can play the code until a certain place and then you can step in with F8. Add as many as you need
+3. Hover your mouse on a variable to see its result
+4. Use the Immediate Window. Type Debug.Print followed by your variable name in the code. This writes the result to the immediate window. You can also type in code directly in this window. Use the "?" to get the answer. Activate it from the View tab. 
+5. Use the Locals Window to see the value and characteristics associated with each variable. Activate it from the View tab. 
+6. Use the Watch Window to keep your eye on certain variables. Right-mouse click on a variable or statement and "add to watch." Or, drag to the window. You can change the variable property directly by typing it in. Activate watch from the View tab. </t>
+  </si>
+  <si>
+    <t>Methods for error handling</t>
+  </si>
+  <si>
+    <t>1. Use a label to jump to the end of the code the moment an error occurs. Downside: once an error occurs, the sub ends without any information 
+2. Use "On Error Resume Next."  Suppresses certain errors and then resumes normal error handling for the remaining instructions. 
+3. Write code to handle the error based on type of error</t>
+  </si>
+  <si>
+    <t>Example of error handling #1</t>
+  </si>
+  <si>
+    <t>Example of error handling #2</t>
+  </si>
+  <si>
+    <t>Example of error handling #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faster &amp; Efficient VBA Code </t>
+  </si>
+  <si>
+    <t>Running one sub from another</t>
+  </si>
+  <si>
+    <t>See S8_ErrorHandling_Start_V2 ProceduresLessons Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure Scope &amp; Passing Arguments </t>
+  </si>
+  <si>
+    <t>Procedures are public by default
+-Private procedures are accessible to other procedures in the same module. They are also not shown in the macro list 
+-To execute one procedure from another procedure you can use the optional keyword Call. If procedures have arguments, you need brackets if you use the Call keyword. Examples: 
+Call myCalc(i, c)
+myCalc i, c</t>
+  </si>
+  <si>
+    <t>ByRef</t>
+  </si>
+  <si>
+    <t>ByVal</t>
+  </si>
+  <si>
+    <t>The default way of passing arguments (passes the variable itself). Variable's value could change once it's back. 
+Sub myCalc(ByRef, GetValue, myPercent)</t>
+  </si>
+  <si>
+    <t>only processes a copy of the variable and does not change the variable's value. Variable keeps its value once it's back. 
+Sub myCalc(ByVal GetValue, myPercent)</t>
+  </si>
+  <si>
+    <t>Table of Contents</t>
+  </si>
+  <si>
+    <t>For Next Counter Loops</t>
+  </si>
+  <si>
+    <t>For Next Nested Loop</t>
+  </si>
+  <si>
+    <t>A loop inside a loop
+See For Next tab in S10_Looping_Start</t>
+  </si>
+  <si>
+    <t>Do Until/Do While Loop</t>
+  </si>
+  <si>
+    <t>Do While loops runs as long as a specified condition is met (e.g. "loop through these cells while the cell contains numbers")
+Do Until loops runs until a specified condition is met (e.g. "loop through these cells until the cell becomes empty")
+Exit Do command leaves the loop immediately when a condition is met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do While example </t>
+  </si>
+  <si>
+    <t>Find Method for Quicker Results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find method provides a quick qay to find the answer without Looping 
+Like using "Ctrl + F" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Find(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, After, Lookin, LookAt, SearchOrder….)
+expression: A variable that represents a Range object
+The only required argument is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but recommend using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lookin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">because it will otherwise default to whatever you previously looked at (e.g. comments, formulas, etc)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lookat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: full or partial match, recommend to set </t>
+    </r>
+  </si>
+  <si>
+    <t>Timer to Test &amp; Speech to Inform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding a timer (VBA function) helps you test different versions of code for the same task </t>
+  </si>
+  <si>
+    <t>Other useful VBA statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kill: Deletes a file
+Like: Returns True if one string can be matched with another
+Mid: replaces characters in a string with other characters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple looping construct that's based on a counter
+Exit For statement leaves the loop
+Very powerful and flexible way of looping through cells. It's safer to use than the Do loop: The loop only runs for a specific number of times depending on the lower and upper values of the control variable
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept </t>
+  </si>
+  <si>
+    <t>Declaring a fixed array</t>
+  </si>
+  <si>
+    <t>Declaring a dynamic array</t>
+  </si>
+  <si>
+    <t>Declaring a two-dimensional fixed array</t>
+  </si>
+  <si>
+    <t>Referring to the lowest/highest index in the array</t>
+  </si>
+  <si>
+    <t>define the size of the dynamic array</t>
+  </si>
+  <si>
+    <t>keep the existing values inside the array</t>
+  </si>
+  <si>
+    <t>Dim MonthArray(1 to 12) As String
+-If you don't declare a lower bound, it is 0</t>
+  </si>
+  <si>
+    <t>Dim MonthInfo(1 To 12, 1 To 2) As Variant</t>
+  </si>
+  <si>
+    <t>LBound(MonthArray)
+Ubound(MonthArray)</t>
+  </si>
+  <si>
+    <t>ReDim Preserve Customers(1 To 3)
+If you don't use ReDim Preserve, the new definition will overwrite the values in the previous array</t>
+  </si>
+  <si>
+    <t>Dim MonthArray() As String
+-later you need to use the ReDim statement to fill up the array</t>
+  </si>
+  <si>
+    <t>ReDim MonthArray(1 To Last)
+-ReDim erases everything before it fills up the array
+-Last is the variable representing the dynamic upper bound</t>
+  </si>
+  <si>
+    <t>Fill a 1D array example</t>
+  </si>
+  <si>
+    <t>Fill a 2D array example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working with variant arrays </t>
+  </si>
+  <si>
+    <t>Example of a variant array</t>
+  </si>
+  <si>
+    <t>similar to working with arrays in Excel
+keep values of many cells inside one variable (compartment)
+manipulate the members of this variable
+write back to the range in one go
+-Looping inside arrays is faster than looping in the cells. This is faster than using a For...Next loop</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if file or folder exists
+DIR function uses a path argument and returns the name of the file or folder. If path name is not found, DIR returns a zero length string ("").
+Syntax: 
+Dir("&lt;path&gt;" [,&lt;attributes&gt;])
+The attributes argument is optional and the default is 0. </t>
+  </si>
+  <si>
+    <t>DIR code example</t>
+  </si>
+  <si>
+    <t>Wildcards</t>
+  </si>
+  <si>
+    <t>wildcards can be used in the path string
+* (any length string)
+? (fixed-length string. ? Replaces one character, ?? Replaces 2 characters)</t>
+  </si>
+  <si>
+    <t>Select Case vs. If ElseIf</t>
+  </si>
+  <si>
+    <t>Both accomplish the same end result, but Select Case can be easier to read and write if an expression is being compared against more than one condition. Note in Select Case, the expression only has to be written at the beginning vs. repeated like in if-elseif
+Example of If Else If:
+Dim score as Integer
+score = 85
+If score &gt;= 90 Then 
+Msgbox "Great Job"
+Elseif score &gt;=80 and score &lt; 90 Then 
+Msgbox "Good work!"
+etc. 
+Example of Select Case: 
+Select Case score
+Case is &gt;=90
+Msgbox "Excellent"
+Case is &gt;=80
+Msgbox "Good job!"
+Case is &gt;= 70
+Msgbox "Pretty Good"
+Case Else
+Msgbox "Work harder"
+End Select</t>
+  </si>
+  <si>
+    <t>User Selects File: 
+GetOpenFileName (1 file)</t>
+  </si>
+  <si>
+    <t>User Selects Files: 
+GetOpenFileName (Many files)</t>
+  </si>
+  <si>
+    <t>User selects a folder (to loop through)
+Code example</t>
+  </si>
+  <si>
+    <t>Loop inside a folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FileDialog Property provides an easy way to allow the user to select a folder. You can write a loop to go through each file inside the folder. 
+Calling the Dir function again inside the loop without any arguments moves on to the next file in the folder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing and Reading a Text File </t>
+  </si>
+  <si>
+    <t>VBA Open Statement (not the Open method of Workbook) opens a file for reading or writing. This gives you more control over the layout (for example the delimiter)
+Required statements are: 
+-Pathname: path and name of the file to be opened
+-Mode: Input (read the file only), Output (write or read the file), Append (add to the bottom of the file)
+-Filenumber: the next available file number. Use #1 if this is the first file opened or use the FreeFile Function to get the next available file number
+-Write: this writes a line of text to the file and surrounds it with quotations
+-Print: this writes a line of text to the file without quotations</t>
+  </si>
+  <si>
+    <t>Example of writing and reading a text file</t>
+  </si>
+  <si>
+    <t>Using Excel Formulas in VBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormulaR1C1 property uses the row and column numbering to refer to cells 
+Formula property uses the A1 Type of referencing (although it can interpret R1C1 referencing as well). 
+</t>
+  </si>
+  <si>
+    <t>Working with Excel Tables</t>
+  </si>
+  <si>
+    <t>Declaring Tables</t>
+  </si>
+  <si>
+    <t>Whole Tables</t>
+  </si>
+  <si>
+    <t>All Data--No Headers</t>
+  </si>
+  <si>
+    <t>Count Rows</t>
+  </si>
+  <si>
+    <t>Specific Row</t>
+  </si>
+  <si>
+    <t>Specific Column exclude Headers</t>
+  </si>
+  <si>
+    <t>Header only</t>
+  </si>
+  <si>
+    <t>Add a row to the bottom</t>
+  </si>
+  <si>
+    <t>Add a 2nd row</t>
+  </si>
+  <si>
+    <t>Add a column to the end</t>
+  </si>
+  <si>
+    <t>Add a 2nd column</t>
+  </si>
+  <si>
+    <t>Rename the last column</t>
+  </si>
+  <si>
+    <t>Add formula to specific column</t>
+  </si>
+  <si>
+    <t>Dim myTable as ListObject
+Set myTable = Activesheet.ListObjects("Table1")</t>
+  </si>
+  <si>
+    <t>myTable.Range.Select</t>
+  </si>
+  <si>
+    <t>myTable.DataBodyRange.Select</t>
+  </si>
+  <si>
+    <t>myTable.Range.Rows.Count</t>
+  </si>
+  <si>
+    <t>myTable.ListRows(5).Range.Select</t>
+  </si>
+  <si>
+    <t>myTable.ListColumns("Quantity").DataBodyRange.Select</t>
+  </si>
+  <si>
+    <t>myTable.HeaderRowRange.Select</t>
+  </si>
+  <si>
+    <t>myTable.ListRows.Add, False</t>
+  </si>
+  <si>
+    <t>myTable.ListRows.Add 2</t>
+  </si>
+  <si>
+    <t>myTable.ListColumns.Add</t>
+  </si>
+  <si>
+    <t>myTable.ListColumns.Add 2</t>
+  </si>
+  <si>
+    <t>myTable.ListColumns(myTable.ListColumns.Count).Name = "New"</t>
+  </si>
+  <si>
+    <t>myTable.DataBodyRange(1,6).FormulaR1C1 = "&lt;put formula&gt;"</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>In VBA, you can reference a table in Excel multiple ways: 
+1. using the same syntax used in Excel in the Range Object. Example: 
+.Range("CompTable[Quantity]")
+2. use the Table class in VBA, which is called ListObject (ListObject class)</t>
+  </si>
+  <si>
+    <t>Working with Pivot Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pivot table requires a data source
+When you create a pivot table out of a data source, you are actually creating a pivot cache. The pivot table is based on this pivot cache, not the table in Excel. The pivot table is directly connected to a pivot cache, which is connected to a data source. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PivotTable Tasks </t>
+  </si>
+  <si>
+    <t>VBA code</t>
+  </si>
+  <si>
+    <t>Declaring Pivot Tables</t>
+  </si>
+  <si>
+    <t>Dim PT As PivotTable
+Set PT = ActiveSheet.PivotTables("PivotTable1")</t>
+  </si>
+  <si>
+    <t>Refresh Pivot Table</t>
+  </si>
+  <si>
+    <t>PT.PivotCache.Refresh</t>
+  </si>
+  <si>
+    <t>Refresh All Pivot Tables</t>
+  </si>
+  <si>
+    <t>ActiveWorkbook.RefreshAll</t>
+  </si>
+  <si>
+    <t>Data Range of Pivot</t>
+  </si>
+  <si>
+    <t>PT.DataBodyRange.Font.FontStyle="Arial"</t>
+  </si>
+  <si>
+    <t>Specific Pivot Field</t>
+  </si>
+  <si>
+    <t>PT.PivotFields("Sum of Quantity").NumberFormat="#,##0"</t>
+  </si>
+  <si>
+    <t>Count number of Pivot Cache in Workbook</t>
+  </si>
+  <si>
+    <t>ActiveWorkbook.PivotCaches.Count</t>
+  </si>
+  <si>
+    <t>Memory used for PivotCache 1 in bytes</t>
+  </si>
+  <si>
+    <t>ActiveWorkbook.PivotCaches(1).MemoryUsed</t>
+  </si>
+  <si>
+    <t>Cache Index number of a Pivot Table</t>
+  </si>
+  <si>
+    <t>ActiveSheet.PivotTables("PivotTable2").CacheIndex</t>
+  </si>
+  <si>
+    <t>Change Pivot Cache of one Pivot to another Pivot</t>
+  </si>
+  <si>
+    <t>ActiveSheet.PivotTables("PivotTable2").ChangePivotCache("PivotTable1")</t>
+  </si>
+  <si>
+    <t>Change Pivot Cache to another Table</t>
+  </si>
+  <si>
+    <t>PT.ChangePivotCache ActiveWorkbook.PivotCaches.Create(SourceType:=xlDatabase, SourceData:="compnew")</t>
+  </si>
+  <si>
+    <t>Notes &amp; Examples</t>
+  </si>
+  <si>
+    <t>Explore Data with Quick Analysis Tools</t>
+  </si>
+  <si>
+    <t>Select a cell range and click the pop-up (or Ctrl+Q) to access Quick Analysis tools
+-These tools allow you to quickly add conditional formats, charts, calculated rows and columns, tables, and sparklines to help explore and analyze your data
+Note: Options may be unavailable if they aren't compatible with the selected data
+Common use cases: 
+-quickly exploring a variety of data analysis tools, without having to manually navigate through different options
+-Adding calculated rows or columns without typing a single formula</t>
+  </si>
+  <si>
+    <t>Compare Outputs with the scenario manager</t>
+  </si>
+  <si>
+    <t>Use the scenario manager to save and access specific combinations of cell values 
+To use: Data Tab &gt; What-if Analysis &gt; Scenario Manager
+-this is often used for modeling exercises, allowing you to fix combinations of inputs in order to evaluate a calculated output
+*Tip* Give your input cells meaningful names (i.e. "Interest_Rate" vs. A1)
+Common use cases: 
+-building forecasts based on several variables (seasonality, interest rates, etc.)
+-modeling several potential outcomes in cases where uncertainty is a factor (i.e. stock portfolio returns)</t>
+  </si>
+  <si>
+    <t>Solve for Individual Outputs with Goal Seek</t>
+  </si>
+  <si>
+    <t>Use Goal Seek to find the result you want by changing the value of a given input cell (Data &gt; What-If Analysis &gt; Goal Seek)
+-Goal Seek requires a single, hard-coded input cell and a single, formula-based output cell; you cannot test multiple inputs
+*Tip* To evaluate multiple inputs, add constraints, or solve complex optimization problems, use Excel's Solver tool (requires the Solver Add-In) 
+Common use cases: 
+-Determining the ideal input required to produce a specific goal or target outcome (i.e. number of sales required to yield a positive profit)
+-Solving simple optimization problems based on a single input variable</t>
+  </si>
+  <si>
+    <t>Create Forecast Sheets from Historical Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Forecast Sheet tool calculates forecasts based on historical data
+-The forecast sheet dialog box allows you to set the forecast length and confidence interval, detect seasonality, and customize handling of missing or duplicate values
+*Note: Trendlines can be used for simple forecast exercises, but do not account for confidence or seasonality
+Common use cases: 
+-Predicting future values such as interest rates or stock returns
+-Calculating an expected range of future outcomes based on a given level of confidence </t>
+  </si>
+  <si>
+    <t>Find Outliers with Stats Functions and Conditional Formatting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use functions like Median and Quartile to calculate statistical outliers, and conditional formatting to highlight them
+-outliers are commonly defined using a "fence" based on how far a value falls outside of the interquartile range (IQR)
+*Tip* For simple Top N or Top % calculations, use basic conditional formats
+Common use cases: 
+-identifying statistical anomalies in a dataset, based on custom criteria
+-finding and removing values that may have been incorrectly entered
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quartile function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+inclusive version: example: if set to the first quartile, will include the value that is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>greater than or equal to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25% of the values in the array. Note: if you want to return the minimum or maximum value, you must use the inclusive version 
+exclusive version: will determine the value that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is greater than</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25% of the values in the array
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fence multiplier: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Determines how far outside of the interquartile range a value must fall in order to be considered a statistical outlier. This is a hard-coded value. 1.5 is typically a good starting point</t>
+    </r>
+  </si>
+  <si>
+    <t>Evaluate Variable Inputs with Data Tables</t>
+  </si>
+  <si>
+    <t>Advanced filters allow you to define a custom criteria range, which can contain complex combinations of filtering rules
+-use advanced filtering to define rules that would be impossible with standard filters or Pivot Tables (e.g. filtering on Action films rated 8.5+ plus Biography films rated 8+
+Note: Advanced filters iterate through all rows of the table, and can be very slow for large tables or very broad criteria</t>
+  </si>
+  <si>
+    <t>Data Tables allow you to calculate an array of results based on a range of input values (Data Tab &gt; What-If Analysis &gt; Data Table)
+-Data tables can be used to evaluate formula results based on changes to either a single input variable or multiple variables
+*Tip* Change the calculation mode to "Automatic Except for Data Tables" to prevent them from constantly recalculating
+Common use cases:
+-calculating a matrix of results based on combinations of input values (i.e. monthly payments based on interest rates and down payments)
+-identifying the optimal outcome given multiple variable inputs</t>
+  </si>
+  <si>
+    <t>Connect &amp; Shape Data with Power Query</t>
+  </si>
+  <si>
+    <t>Power Query (aka Get Data or Get &amp; Transform) is used to connect, transform, and load data from external sources
+-all operations are saved with the query as "applied steps" and repeated each time the connection is refreshed
+Data can be loaded to worksheets or to the Data Model, where you can store much more data and build relational models to connect tables from multiple sources
+Common use cases:
+-connecting to flat files or database sources, and transforming or filtering the data before loading into Excel for further analysis
+-creating an automated ETL (extract, transform, load) process that can be refreshed as new data becomes available</t>
+  </si>
+  <si>
+    <t>Build Relational Data Models in Excel</t>
+  </si>
+  <si>
+    <t>Use Excel's data model to compress large amounts of data, create table relationships, and add calculated measures with DAX
+-once table relationships are defined, use Power Pivot to explore and analyze data from multiple sources in a single view</t>
+  </si>
+  <si>
+    <t>Explore Data Models with Cube Functions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use CUBE functions (vs. Pivots) to pull values from a Data Model directly into cells: 
+-CUBESET: A collection of items or members (i.e. one column from a table in the model)
+-CUBEMEMBER: A single item within a cubeset (i.e. one item from a table column)
+-CUBERANKEDMEMBER: A single item within an cubeset, based on an ordered rank
+-CUBEVALUE: An aggregated numerical value based on a set of member expressions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>More information:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://support.microsoft.com/en-us/office/cube-functions-reference-2378132b-d3f2-4af1-896d-48a9ee840eb2
+Common use cases: 
+-Building spreadsheet-based resports or dashboards from data in the data model without relying on PivotTables
+-Documenting all of the sets and members with a data model</t>
+    </r>
+  </si>
+  <si>
+    <t>Build a Monte Carlo Simulation Model</t>
+  </si>
+  <si>
+    <t>Monte Carlo Simulation is commonly used to predict the probability of given otucomes based on repeated random sampling
+-in Excel, use RAND or RANDBETWEEN to randomize formula inputs, and Data Tables to generate an array of results 
+-Based on the resulting array you can use stats functions, like FREQUENCY or COUNTIF to calculate outcome probabilities 
+*Tip* Referencing a blank cell as the Data Table input allows each row to randomize
+Common use cases: 
+-Randomly simulating a model thousands of times in order to understand the probability of certain outcomes (i.e. probability of a profit vs. loss)
+-Building predictive models that account for a given degree of uncertainty for one or more inputs (i.e. future interest rates, supply costs. etc.)</t>
+  </si>
+  <si>
+    <t>Optimize Complex Models With Solver</t>
+  </si>
+  <si>
+    <t>Use Solver to solve complex optimization problems that require multiple decision variables and constraints
+-Unlike Goal Seek, Solver allows you to minimize, maximize, or target an objective value by changing multiple input cells, subject to give constraints
+-Select Simplex LP for linear optimizations and GRG or Evolutionary for non-linear
+GRG is much faster but may not provide the global, optimal solution; Evolutionary is most likely to provide the optimal solution but is much slower 
+Common use cases: 
+-Determining optimal results subject to real-world constraints (i.e. limited inventory, price floors, integer values, etc.)</t>
+  </si>
+  <si>
+    <t>Explore Data with the Analysis ToolPak</t>
+  </si>
+  <si>
+    <t>Analysis ToolPak is a built-in Excel plug-in that supports a range of advanced data analysis and statistical methods (Anova, Covariance, Regression, T-Tests, etc. 
+-It can also be used to quickly generate key descriptive statistics (mean, mode, variance, range, count, skewness, etc.)</t>
+  </si>
 </sst>
 </file>
 
@@ -1895,12 +3988,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1916,7 +4015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1928,6 +4027,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1946,6 +4058,1542 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4960080</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>2727960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF80E0E-1DF6-1A49-59E4-2AACFCEDDD93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2034540" y="37376100"/>
+          <a:ext cx="4815300" cy="2293620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>358140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2362405</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1204033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4317CB-C151-E399-132F-59649723284F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1889760" y="46504860"/>
+          <a:ext cx="2362405" cy="845893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>358140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2385263</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>1310723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA58BF85-E135-BB97-6927-1EC416305E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935480" y="47716440"/>
+          <a:ext cx="2339543" cy="952583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>594361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2198141</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1501141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CB6F13-D6CF-041B-495D-C630176BB267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958341" y="49331881"/>
+          <a:ext cx="2129560" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1798321</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>746761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3152663</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2468881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D724D96-C5EF-7DD4-B04C-8F6F8FC65355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798321" y="929641"/>
+          <a:ext cx="3206002" cy="1722120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1013461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3147060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1887199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B016CB4D-9C06-AC0A-CC37-0D91A589A597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2842260" y="3870961"/>
+          <a:ext cx="2156460" cy="873738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1783080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3299745</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2865214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D292A1-12CB-BC1D-B5E4-1EF097FC5A1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="4640580"/>
+          <a:ext cx="3284505" cy="1082134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>624840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3009901</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1941379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD842ABB-6E0C-8304-FAAD-3FF0DF06A857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1889761" y="6553200"/>
+          <a:ext cx="2971800" cy="1316539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2147989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF931C4-7990-DFF4-C249-ECF49F801364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920241" y="8625841"/>
+          <a:ext cx="2217420" cy="2010828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2094781</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1661160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D3A70C-2BFD-2BF7-C4A7-48E30014F859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1927860" y="11917680"/>
+          <a:ext cx="2018581" cy="1584960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2202180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4381689</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1348830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F5DF7C-9296-3E9E-F127-4735DFE83573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4053840" y="12146280"/>
+          <a:ext cx="2179509" cy="1044030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167641</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3305619</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1607820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10FD640-94CF-71CE-7036-7EDE2DCAE7B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019301" y="15110460"/>
+          <a:ext cx="3137978" cy="1516380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5425904</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1798453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0978D8F-B88B-3682-4C5F-E670D8BDFD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2308860" y="13975080"/>
+          <a:ext cx="5349704" cy="1539373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>960120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2362403</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>3185353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654F1227-54FC-084C-1429-C5B6E16D3636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="18173700"/>
+          <a:ext cx="2347163" cy="2225233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4237087</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1463167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D147B59-ED83-F1E2-BD40-8134701A2DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2232660" y="20535900"/>
+          <a:ext cx="4237087" cy="1463167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2347150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1409827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7FDF81-15DD-63DC-BF7A-A20CB8B85F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="4595125"/>
+          <a:ext cx="2072830" cy="1386702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>472441</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2403879</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1668780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D8ABEB-29C3-666A-D733-C10D6548CEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2941321" y="6156960"/>
+          <a:ext cx="1931438" cy="1569720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2255713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4364149-CB76-08E0-7036-BA7C8837314C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2827020" y="8008620"/>
+          <a:ext cx="2309060" cy="2225233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2393249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2278555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E0D87F-5AAD-BB86-EBF3-D28B20C77478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537460" y="10553700"/>
+          <a:ext cx="6569009" cy="2019475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2430780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1981730</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4008257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE2A802-0B35-3C80-CB39-C8DAB6C0C7C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2583180" y="12725400"/>
+          <a:ext cx="6111770" cy="1577477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>975361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4328161</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2776009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2053D90A-49F8-4D56-0822-52A0BB70DA85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958341" y="1158241"/>
+          <a:ext cx="4274820" cy="1800648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1005840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3886522</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3383486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E4CDCB-2F13-ABEC-929B-509D38340627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988820" y="3924300"/>
+          <a:ext cx="3711262" cy="2377646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3383545</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1257400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E445707-6CDB-7D06-7ACA-131930D2A506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141220" y="6652260"/>
+          <a:ext cx="3055885" cy="1158340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3917614</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2324345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA34EF07-ED8B-01B9-B6DF-D77D4A066B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2034540" y="10088880"/>
+          <a:ext cx="3788074" cy="1768085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3657908</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1524120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575AD4DE-2016-1B0C-027C-E401367F8235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2103120" y="2880360"/>
+          <a:ext cx="3558848" cy="1386960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3543595</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2202353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C153D1-75A9-C89F-87D8-D604F2471BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2148840" y="4518660"/>
+          <a:ext cx="3398815" cy="1996613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1973580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3711264</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2194740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6629B66-FBF7-90B5-CC6C-9349D2CD7F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="7818120"/>
+          <a:ext cx="3741744" cy="2080440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205741</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1158240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3070861</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2838597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF099FF-EE52-4DA1-253D-B95D2122A57F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476501" y="1341120"/>
+          <a:ext cx="2865120" cy="1680357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3589315</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1920393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F28C618-84D7-F4C3-4AB3-A4998491DFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2461260" y="3299460"/>
+          <a:ext cx="3398815" cy="1767993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3726499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2179500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B0A37F-7DB5-3991-32F2-AC472CCC273C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="9936480"/>
+          <a:ext cx="3680779" cy="2072820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3459769</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3170170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D3BC13-587E-8359-E3D5-EEC8FE6212E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="12344400"/>
+          <a:ext cx="3330229" cy="2880610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2731719</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2453640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B71E0B-B3F7-69A1-A006-DFF38DF60DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="15384780"/>
+          <a:ext cx="2510739" cy="2331720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4153251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>990683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F93634C-A7F4-943B-341F-9ECD963CCFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="20627340"/>
+          <a:ext cx="4046571" cy="952583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1950721</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158021</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1889760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DC7155-B8D3-1EE0-1F1B-766386034CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1950721" y="1135380"/>
+          <a:ext cx="4570000" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,147 +5896,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE98660-0DAF-4320-90DB-233E319E6FA5}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66428D6-FA95-4A6F-B766-D7406927BA40}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>234</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -2397,18 +5921,103 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1CDB4-16A2-471A-B7CC-C593C8927033}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE919656-43AC-4E04-B0F5-DF67AF9BF816}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1CDB4-16A2-471A-B7CC-C593C8927033}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2427,109 +6036,141 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>299</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2538,12 +6179,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5A7D92-1903-4501-AA88-DB9EDC942500}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2555,143 +6197,143 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>HYPERLINK("#'[Excel_Pro_Tips.xlsx]Many-to-Many Lookups'!$A$1","Link")</f>
@@ -2704,8 +6346,267 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50F05EE-35B9-43ED-A324-A9318A4D9CEC}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="65.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA57ABB-2C31-41CC-AE53-040B233A51CB}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865E98F8-0C8D-4A50-B017-B2B700B42A0D}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2735,108 +6636,108 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2844,8 +6745,2242 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2A344A-274C-48DB-B595-878FA4366064}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:B88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>435</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>443</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>444</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>446</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>447</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>459</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>460</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>464</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>469</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>470</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>471</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>472</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>473</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>474</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>475</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="220.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>532</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>534</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>537</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>539</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>541</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B64F3C-E813-481E-8119-26441DC3A918}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="241.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801B7A9A-FE55-4DCF-997F-482A50E12FB4}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>584</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>596</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>598</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>600</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>602</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>604</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>606</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>608</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>612</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>614</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>616</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>619</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>621</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>623</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>625</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>627</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>629</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>631</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>636</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>638</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>640</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>642</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>645</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>647</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>649</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>651</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>653</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>655</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>658</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>660</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>662</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>664</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>666</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>668</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>670</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>672</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9FCDC3-1CE7-4838-B6CB-9399BE144100}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="372" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE98660-0DAF-4320-90DB-233E319E6FA5}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B6D600-0726-4359-8502-3CB82DBC5906}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="59.77734375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F7C056-084A-4BFD-B62F-E2A5975E44FB}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="64.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="286.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>705</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>707</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25846900-2D9D-4B7B-B4F4-AB162A2500F3}">
+  <sheetPr codeName="Sheet22"/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9165F2A1-A484-4D45-98D8-67F0A78D156B}">
+  <sheetPr codeName="Sheet23"/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="233.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="252.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4481B4-B4BE-4C7F-95C9-53F7E7442CF7}">
+  <sheetPr codeName="Sheet24"/>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.21875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA0D959-1938-4564-B07C-CA5836CF31D7}">
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CD7AFA-8027-48CC-A56A-28FB4C86308B}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2864,121 +8999,121 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2986,8 +9121,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59521EB-0CF3-4B5E-B356-940F621E01D2}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3006,7 +9142,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -3014,148 +9150,148 @@
     </row>
     <row r="2" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3164,11 +9300,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F661CB2-6902-444A-B699-0A2852AD9B61}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3184,7 +9321,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -3192,81 +9329,81 @@
     </row>
     <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="295.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G9" t="str">
         <f>MID(F9,2,3)</f>
@@ -3275,48 +9412,48 @@
     </row>
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3325,8 +9462,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC83583-28D0-4078-A4A3-750AC9BE4061}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3345,54 +9483,54 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3404,11 +9542,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FA0220-1978-4A85-981C-DBFC2F54C2D2}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3422,165 +9561,165 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C4" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3589,8 +9728,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0533D77-079A-41A6-9EF7-770C144841DE}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -3610,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -3624,125 +9764,125 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3754,8 +9894,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F37006-5843-4299-82BE-7D77CA56D62A}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3771,10 +9912,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -3782,105 +9923,22 @@
     </row>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE919656-43AC-4E04-B0F5-DF67AF9BF816}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
